--- a/R공부.xlsx
+++ b/R공부.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\easy_r\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study_R\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797C749D-B06D-4D37-BC5F-9FC702E3D7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27090" windowHeight="11655" activeTab="1"/>
+    <workbookView xWindow="25590" yWindow="390" windowWidth="21825" windowHeight="14730" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataFrame" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="filter" sheetId="3" r:id="rId3"/>
+    <sheet name="select()" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>성별</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,14 +105,59 @@
   </si>
   <si>
     <t>태권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>math</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>english</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filter()함수를 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class ==2 인 행의 데이터를 가지고 오자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exam 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exam %&gt;% filter( class == 2 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select()함수
+변수(열)데이터 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select(math, english)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exam %&gt;% select( math, english )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,8 +197,17 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF00B050"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,8 +226,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -202,13 +265,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -230,6 +302,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -242,8 +317,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -279,7 +378,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="아래쪽 화살표 1"/>
+        <xdr:cNvPr id="2" name="아래쪽 화살표 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -338,7 +443,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="왼쪽 화살표 2"/>
+        <xdr:cNvPr id="3" name="왼쪽 화살표 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -647,7 +758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -661,12 +772,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -682,10 +793,10 @@
       <c r="E5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="2:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
@@ -700,7 +811,7 @@
       <c r="E6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -717,7 +828,7 @@
       <c r="E7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="2:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
@@ -732,7 +843,7 @@
       <c r="E8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -748,11 +859,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C7:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -774,7 +885,7 @@
       </c>
     </row>
     <row r="8" spans="3:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="2">
@@ -785,7 +896,7 @@
       </c>
     </row>
     <row r="9" spans="3:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="2">
@@ -796,7 +907,7 @@
       </c>
     </row>
     <row r="10" spans="3:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="2">
@@ -807,7 +918,7 @@
       </c>
     </row>
     <row r="11" spans="3:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2">
@@ -822,4 +933,395 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A040952F-2D86-4E82-A6D2-01CAF86B0B24}">
+  <dimension ref="B5:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="19.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:6" ht="3.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="12">
+        <v>1</v>
+      </c>
+      <c r="C8" s="13">
+        <v>50</v>
+      </c>
+      <c r="D8" s="13">
+        <v>70</v>
+      </c>
+      <c r="E8" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="12">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13">
+        <v>80</v>
+      </c>
+      <c r="D9" s="13">
+        <v>50</v>
+      </c>
+      <c r="E9" s="13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="14">
+        <v>2</v>
+      </c>
+      <c r="C10" s="15">
+        <v>60</v>
+      </c>
+      <c r="D10" s="15">
+        <v>45</v>
+      </c>
+      <c r="E10" s="15">
+        <v>80</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="14">
+        <v>2</v>
+      </c>
+      <c r="C11" s="15">
+        <v>70</v>
+      </c>
+      <c r="D11" s="15">
+        <v>90</v>
+      </c>
+      <c r="E11" s="15">
+        <v>60</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="14">
+        <v>2</v>
+      </c>
+      <c r="C12" s="15">
+        <v>50</v>
+      </c>
+      <c r="D12" s="15">
+        <v>80</v>
+      </c>
+      <c r="E12" s="15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="12">
+        <v>3</v>
+      </c>
+      <c r="C13" s="13">
+        <v>45</v>
+      </c>
+      <c r="D13" s="13">
+        <v>60</v>
+      </c>
+      <c r="E13" s="13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="12">
+        <v>3</v>
+      </c>
+      <c r="C14" s="13">
+        <v>90</v>
+      </c>
+      <c r="D14" s="13">
+        <v>70</v>
+      </c>
+      <c r="E14" s="13">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="12">
+        <v>4</v>
+      </c>
+      <c r="C15" s="13">
+        <v>100</v>
+      </c>
+      <c r="D15" s="13">
+        <v>50</v>
+      </c>
+      <c r="E15" s="13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="12">
+        <v>5</v>
+      </c>
+      <c r="C16" s="13">
+        <v>70</v>
+      </c>
+      <c r="D16" s="13">
+        <v>45</v>
+      </c>
+      <c r="E16" s="13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="2:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77CA57B8-519F-431E-B7ED-979A9A5D9EB8}">
+  <dimension ref="B5:F19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="19.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:6" ht="3.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:6" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="20"/>
+    </row>
+    <row r="7" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="12">
+        <v>1</v>
+      </c>
+      <c r="C8" s="13">
+        <v>50</v>
+      </c>
+      <c r="D8" s="15">
+        <v>70</v>
+      </c>
+      <c r="E8" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="12">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13">
+        <v>80</v>
+      </c>
+      <c r="D9" s="15">
+        <v>50</v>
+      </c>
+      <c r="E9" s="15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="17">
+        <v>2</v>
+      </c>
+      <c r="C10" s="18">
+        <v>60</v>
+      </c>
+      <c r="D10" s="15">
+        <v>45</v>
+      </c>
+      <c r="E10" s="15">
+        <v>80</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="17">
+        <v>2</v>
+      </c>
+      <c r="C11" s="18">
+        <v>70</v>
+      </c>
+      <c r="D11" s="15">
+        <v>90</v>
+      </c>
+      <c r="E11" s="15">
+        <v>60</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="17">
+        <v>2</v>
+      </c>
+      <c r="C12" s="18">
+        <v>50</v>
+      </c>
+      <c r="D12" s="15">
+        <v>80</v>
+      </c>
+      <c r="E12" s="15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="12">
+        <v>3</v>
+      </c>
+      <c r="C13" s="13">
+        <v>45</v>
+      </c>
+      <c r="D13" s="15">
+        <v>60</v>
+      </c>
+      <c r="E13" s="15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="12">
+        <v>3</v>
+      </c>
+      <c r="C14" s="13">
+        <v>90</v>
+      </c>
+      <c r="D14" s="15">
+        <v>70</v>
+      </c>
+      <c r="E14" s="15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="12">
+        <v>4</v>
+      </c>
+      <c r="C15" s="13">
+        <v>100</v>
+      </c>
+      <c r="D15" s="15">
+        <v>50</v>
+      </c>
+      <c r="E15" s="15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="12">
+        <v>5</v>
+      </c>
+      <c r="C16" s="13">
+        <v>70</v>
+      </c>
+      <c r="D16" s="15">
+        <v>45</v>
+      </c>
+      <c r="E16" s="15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="2:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="D6:E6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>